--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299539.716299472</v>
+        <v>1332117.930814671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -662,64 +664,64 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>196.9826481283071</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>157.1227837723096</v>
       </c>
       <c r="V3" t="n">
-        <v>158.7387546220147</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>47.11353018715725</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>144.657786985058</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,55 +1062,55 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.09198093152767</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>192.9610988726774</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>81.05835151197738</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>83.72646317855323</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>121.393646812485</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>304.8877670055174</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1467,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>108.0765134097</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.8378640993551</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>221.6481477176231</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>243.6771633576193</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>16.60419956430029</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.20428959175573</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>125.1320680988946</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>154.5117248826789</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>61.27999656535754</v>
       </c>
       <c r="S20" t="n">
-        <v>45.83739796067772</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>104.262613881998</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>88.90986270619095</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>10.54215419659351</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>204.255855370471</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>132.8984655111274</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2460,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>2.315214054766407</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>169.4333667739966</v>
+        <v>197.6018622437328</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>259.5653225537865</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>138.854596704958</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>100.0805668703172</v>
+        <v>94.38897766723555</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>123.3207948651974</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>210.6182563090836</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -2846,19 +2848,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>340.4422929262584</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2873,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>91.39285769317293</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>73.23838780596452</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8.077762236110443</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>27.86836412189183</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>328.0039825991672</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>190.3242501950991</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3117,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3165,7 +3167,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>135.2435936270596</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>156.8482076906877</v>
       </c>
       <c r="X34" t="n">
-        <v>156.8482076906872</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>185.4590370615473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>85.05217334046128</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>99.03946631682496</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>100.0805668703172</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>74.54211823523698</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.44663919424258</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>121.2132544078953</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>278.1953798395903</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3590,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>104.262613881998</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.60419956430097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>84.54254454879708</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>274.0962003298564</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>302.5372727747283</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3879,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>146.0025648277593</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>48.37669028362031</v>
       </c>
     </row>
     <row r="43">
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.5544594002524</v>
       </c>
       <c r="E43" t="n">
-        <v>93.98149908494777</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>142.347791534774</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>247.3024144089438</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>147.6938511001825</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4107,10 +4109,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>187.9216174196137</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>115.1165353722836</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>765.0847836638613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>521.6360070197613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>278.1872303756613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>805.3472729123437</v>
       </c>
       <c r="V3" t="n">
-        <v>272.1352367728036</v>
+        <v>570.195164680601</v>
       </c>
       <c r="W3" t="n">
-        <v>272.1352367728036</v>
+        <v>570.195164680601</v>
       </c>
       <c r="X3" t="n">
-        <v>272.1352367728036</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y3" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172.8414173495843</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>172.8414173495843</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>172.8414173495843</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>380.6017161145382</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y6" t="n">
-        <v>172.8414173495843</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.2572196227447</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>290.2572196227447</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>290.2572196227447</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>74.87838582348564</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>74.87838582348564</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>485.167420504237</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.2572196227447</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.0535470733607</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>521.0535470733607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>521.0535470733607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>361.8160920679052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>215.2815340947902</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>215.2815340947902</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9123985023695</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X9" t="n">
-        <v>521.0535470733607</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>521.0535470733607</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.5148417067807</v>
+        <v>1319.119653254809</v>
       </c>
       <c r="C11" t="n">
-        <v>169.5148417067807</v>
+        <v>1319.119653254809</v>
       </c>
       <c r="D11" t="n">
-        <v>169.5148417067807</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E11" t="n">
-        <v>169.5148417067807</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F11" t="n">
-        <v>169.5148417067807</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>169.5148417067807</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
-        <v>169.5148417067807</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>1705.719493318931</v>
       </c>
       <c r="X11" t="n">
-        <v>556.1146817709025</v>
+        <v>1705.719493318931</v>
       </c>
       <c r="Y11" t="n">
-        <v>556.1146817709025</v>
+        <v>1705.719493318931</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D12" t="n">
         <v>665.4917812623953</v>
@@ -5121,49 +5123,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5227,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>590.7606299016081</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.857513382056</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="C14" t="n">
-        <v>46.89499644164432</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="D14" t="n">
-        <v>46.89499644164432</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5282,7 +5284,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5306,22 +5308,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>1863.294146232633</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>1532.231258889062</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="W14" t="n">
-        <v>1179.462603618948</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="X14" t="n">
-        <v>805.9968453578678</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="Y14" t="n">
-        <v>415.857513382056</v>
+        <v>1367.273433799587</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5442,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>590.9966546844918</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E17" t="n">
         <v>1371.839859437666</v>
@@ -5519,10 +5521,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2299.088923504685</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.893810642661</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="W17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="X17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>1740.802376378078</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>197.0116358539801</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="C19" t="n">
-        <v>197.0116358539801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5701,22 +5703,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304234</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W19" t="n">
-        <v>353.0840852304234</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X19" t="n">
-        <v>197.0116358539801</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.0116358539801</v>
+        <v>125.1856633885088</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.243605767603</v>
+        <v>1655.59865527635</v>
       </c>
       <c r="C20" t="n">
-        <v>377.243605767603</v>
+        <v>1286.636138335938</v>
       </c>
       <c r="D20" t="n">
-        <v>377.243605767603</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="E20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2282.850835652562</v>
       </c>
       <c r="S20" t="n">
-        <v>2298.449420101734</v>
+        <v>2282.850835652562</v>
       </c>
       <c r="T20" t="n">
-        <v>2078.466660733312</v>
+        <v>2282.850835652562</v>
       </c>
       <c r="U20" t="n">
-        <v>1824.680238618179</v>
+        <v>2029.06441353743</v>
       </c>
       <c r="V20" t="n">
-        <v>1493.617351274609</v>
+        <v>2029.06441353743</v>
       </c>
       <c r="W20" t="n">
-        <v>1140.848696004495</v>
+        <v>2029.06441353743</v>
       </c>
       <c r="X20" t="n">
-        <v>767.3829377434147</v>
+        <v>1655.59865527635</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.243605767603</v>
+        <v>1655.59865527635</v>
       </c>
     </row>
     <row r="21">
@@ -5814,16 +5816,16 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,19 +5834,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
         <v>2193.291384540003</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.7029385691099</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="C22" t="n">
-        <v>136.7029385691099</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="W22" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="X22" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="Y22" t="n">
-        <v>318.3514033993496</v>
+        <v>2138.758986819787</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1536.135517417229</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="C23" t="n">
-        <v>1167.173000476817</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D23" t="n">
-        <v>1167.173000476817</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E23" t="n">
-        <v>1167.173000476817</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6017,22 +6019,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>1952.940289875557</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.1984047608</v>
+        <v>1952.940289875557</v>
       </c>
       <c r="V23" t="n">
-        <v>1536.135517417229</v>
+        <v>1952.940289875557</v>
       </c>
       <c r="W23" t="n">
-        <v>1536.135517417229</v>
+        <v>1600.171634605443</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.135517417229</v>
+        <v>1600.171634605443</v>
       </c>
       <c r="Y23" t="n">
-        <v>1536.135517417229</v>
+        <v>1210.032302629632</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6093,25 +6095,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>215.8311793695513</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6187,10 +6189,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>436.6237585130814</v>
+        <v>408.1707327860751</v>
       </c>
       <c r="Y25" t="n">
-        <v>215.8311793695513</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.857513382056</v>
+        <v>1008.393317206789</v>
       </c>
       <c r="C26" t="n">
-        <v>46.89499644164432</v>
+        <v>639.4308002663772</v>
       </c>
       <c r="D26" t="n">
-        <v>46.89499644164432</v>
+        <v>639.4308002663772</v>
       </c>
       <c r="E26" t="n">
-        <v>46.89499644164432</v>
+        <v>639.4308002663772</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>639.4308002663772</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6230,10 +6232,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V26" t="n">
-        <v>1282.349095302096</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W26" t="n">
-        <v>929.5804400319823</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X26" t="n">
-        <v>556.1146817709025</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y26" t="n">
-        <v>415.857513382056</v>
+        <v>1008.393317206789</v>
       </c>
     </row>
     <row r="27">
@@ -6306,43 +6308,43 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1955.335802636929</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1720.183694405186</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1465.946337676985</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X27" t="n">
         <v>1364.854855989795</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F28" t="n">
         <v>1783.87624508755</v>
@@ -6403,31 +6405,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>2149.407627422406</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>1932.711800928527</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V28" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>1930.76619258546</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1124.290417514874</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="C29" t="n">
-        <v>755.3279005744623</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="D29" t="n">
-        <v>755.3279005744623</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E29" t="n">
-        <v>755.3279005744623</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F29" t="n">
-        <v>755.3279005744623</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
         <v>212.2335778049849</v>
@@ -6467,7 +6469,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6494,19 +6496,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1867.1984047608</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V29" t="n">
-        <v>1867.1984047608</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W29" t="n">
-        <v>1514.429749490686</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X29" t="n">
-        <v>1514.429749490686</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y29" t="n">
-        <v>1124.290417514874</v>
+        <v>212.2335778049849</v>
       </c>
     </row>
     <row r="30">
@@ -6519,19 +6521,19 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>529.8167470832235</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D30" t="n">
-        <v>380.8823374219722</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="E30" t="n">
-        <v>221.6448824165167</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="F30" t="n">
-        <v>221.6448824165167</v>
+        <v>326.663797320749</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>188.5889114534411</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6552,13 +6554,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="C31" t="n">
-        <v>391.0727469424309</v>
+        <v>2081.905978082279</v>
       </c>
       <c r="D31" t="n">
-        <v>391.0727469424309</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="E31" t="n">
-        <v>391.0727469424309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>244.1827994445206</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>75.04485919103001</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="X31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.0727469424309</v>
+        <v>2090.06533387633</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1008.393317206789</v>
+        <v>939.4617933521472</v>
       </c>
       <c r="C32" t="n">
-        <v>1008.393317206789</v>
+        <v>570.4992764117354</v>
       </c>
       <c r="D32" t="n">
-        <v>650.1276186000389</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6728,22 +6730,22 @@
         <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713795</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W32" t="n">
-        <v>1771.998407443681</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="X32" t="n">
-        <v>1398.532649182601</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="Y32" t="n">
-        <v>1008.393317206789</v>
+        <v>1270.77894749272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
         <v>273.1268607498447</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1619.183414158576</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1364.946057430374</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>2186.31728906132</v>
       </c>
       <c r="X34" t="n">
-        <v>449.3360404154141</v>
+        <v>2186.31728906132</v>
       </c>
       <c r="Y34" t="n">
-        <v>228.543461271884</v>
+        <v>1965.52470991779</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>961.4555726570361</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C35" t="n">
-        <v>592.4930557166244</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="D35" t="n">
-        <v>234.2273571098739</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>543.792187433738</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>132.8062826441305</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>132.8062826441305</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2090.963399967084</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>1738.19474469697</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X35" t="n">
-        <v>1738.19474469697</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y35" t="n">
-        <v>1348.055412721158</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7026,7 +7028,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
         <v>1887.88481026779</v>
@@ -7041,25 +7043,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2244.709957115726</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>2045.167259169757</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.335802636929</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V36" t="n">
-        <v>1720.183694405186</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.946337676985</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="C37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7116,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S37" t="n">
-        <v>391.0727469424309</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T37" t="n">
-        <v>391.0727469424309</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="U37" t="n">
-        <v>101.891601688354</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="V37" t="n">
-        <v>101.891601688354</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>122.1900653661261</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1282.349095302096</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C38" t="n">
-        <v>913.3865783616848</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D38" t="n">
-        <v>555.1208797549343</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E38" t="n">
-        <v>169.3326271566901</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F38" t="n">
-        <v>169.3326271566901</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7199,25 +7201,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W38" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X38" t="n">
-        <v>1282.349095302096</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.349095302096</v>
+        <v>1599.231510834029</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>298.7453260127371</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>152.2107680396221</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,49 +7256,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7365,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>2327.977903330397</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>2073.29341512451</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.87624508755</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="Y40" t="n">
         <v>1783.87624508755</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1907.76828710506</v>
+        <v>1578.183232104166</v>
       </c>
       <c r="C41" t="n">
-        <v>1538.805770164648</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D41" t="n">
-        <v>1538.805770164648</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.017517566404</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F41" t="n">
-        <v>742.0316127767962</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7598452596811</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>1907.76828710506</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V41" t="n">
-        <v>1907.76828710506</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W41" t="n">
-        <v>1907.76828710506</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X41" t="n">
-        <v>1907.76828710506</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y41" t="n">
-        <v>1907.76828710506</v>
+        <v>1964.783072168288</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
         <v>2193.291384540003</v>
@@ -7512,25 +7514,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1955.335802636929</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1720.183694405186</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y42" t="n">
         <v>1157.094557224842</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="C43" t="n">
-        <v>438.8323905084034</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="D43" t="n">
-        <v>288.7157510960676</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="E43" t="n">
-        <v>193.7849439395547</v>
+        <v>1930.76619258546</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.7685734363102</v>
+        <v>2055.568676828139</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2270.376276991246</v>
+        <v>1660.254185647012</v>
       </c>
       <c r="C44" t="n">
-        <v>1901.413760050834</v>
+        <v>1291.2916687066</v>
       </c>
       <c r="D44" t="n">
-        <v>1757.628112035911</v>
+        <v>1291.2916687066</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>1291.2916687066</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>880.3057639169929</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>462.0339963998777</v>
       </c>
       <c r="H44" t="n">
         <v>212.2335778049849</v>
@@ -7646,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7676,22 +7678,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W44" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X44" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y44" t="n">
-        <v>2270.376276991246</v>
+        <v>1660.254185647012</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>655.4400344389422</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>655.4400344389422</v>
       </c>
       <c r="E45" t="n">
         <v>506.2543262569397</v>
@@ -7728,10 +7730,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
         <v>974.4476973832902</v>
@@ -7755,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="46">
@@ -7828,13 +7830,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.391887156797</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S46" t="n">
-        <v>1973.696060662917</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T46" t="n">
-        <v>1783.87624508755</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="U46" t="n">
         <v>1783.87624508755</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>307.2673352605755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574067</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.4953510853424</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q24" t="n">
         <v>57.08896698613911</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,13 +11378,13 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.29154873722216</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.35320171189562</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>42.92542614420708</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23425,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23467,13 +23469,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>208.7815735241403</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -23513,7 +23515,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>29.60041017635811</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>84.07509511251564</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23707,13 +23709,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>269.6851342372358</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.42552004830539</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>126.1164897950866</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>89.739060821232</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,7 +23943,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>71.19793050635826</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>12.34981307470357</v>
       </c>
       <c r="S20" t="n">
-        <v>135.5257637727261</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>53.38246657340298</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>59.70561031202141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>203.986714032347</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>202.6201903712405</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>84.88446626361005</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>56.27628861504058</v>
+        <v>28.10779314530433</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>154.5237272881575</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.3833419510956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>105.6924183331603</v>
+        <v>111.3840075362419</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24643,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>102.3888605238397</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.4707935328604</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>45.79564572979518</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.31564129514281</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>32.7254112534449</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>159.1690588625174</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>129.518432927929</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24886,7 +24888,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
@@ -24895,7 +24897,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>54.72985906431336</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>191.6061198771627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -24935,7 +24937,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25005,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>97.5569935223657</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>129.6747906459033</v>
       </c>
       <c r="X34" t="n">
-        <v>68.86144769834999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>196.4713330107145</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>241.9929498922378</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>60.58175323162524</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>92.70470286339085</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>232.0763591423484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>292.8757954340487</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>91.53572083887877</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25476,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>32.43152312663689</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>269.6851342372352</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>201.9804537877939</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>52.9489229028427</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>83.70066588132528</v>
       </c>
     </row>
     <row r="42">
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
     </row>
     <row r="43">
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.06101361796</v>
       </c>
       <c r="E43" t="n">
-        <v>52.4524635616214</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>212.3352500859089</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>79.74270882375527</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9.951229355218487</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26068,16 +26070,16 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.69782020388175</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>171.1727984292525</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647375.9634332799</v>
+        <v>647375.9634332802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647375.9634332799</v>
+        <v>647375.9634332802</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647375.9634332801</v>
+        <v>647375.9634332802</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647375.9634332802</v>
+        <v>647375.9634332801</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647375.9634332799</v>
+        <v>647375.96343328</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647375.9634332798</v>
+        <v>647375.96343328</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26320,10 +26322,10 @@
         <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052693</v>
       </c>
       <c r="F2" t="n">
-        <v>330470.1247052691</v>
+        <v>330470.1247052692</v>
       </c>
       <c r="G2" t="n">
         <v>330470.1247052692</v>
@@ -26332,25 +26334,25 @@
         <v>330470.1247052692</v>
       </c>
       <c r="I2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="J2" t="n">
         <v>330470.1247052693</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>330470.1247052692</v>
-      </c>
-      <c r="K2" t="n">
-        <v>330470.1247052695</v>
       </c>
       <c r="L2" t="n">
         <v>330470.1247052691</v>
       </c>
       <c r="M2" t="n">
+        <v>330470.1247052693</v>
+      </c>
+      <c r="N2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="O2" t="n">
         <v>330470.1247052692</v>
-      </c>
-      <c r="N2" t="n">
-        <v>330470.1247052692</v>
-      </c>
-      <c r="O2" t="n">
-        <v>330470.1247052691</v>
       </c>
       <c r="P2" t="n">
         <v>330470.1247052692</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>329330.5315619941</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="F4" t="n">
         <v>52974.8893495167</v>
       </c>
       <c r="G4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="H4" t="n">
         <v>52974.8893495167</v>
@@ -26442,7 +26444,7 @@
         <v>52974.8893495167</v>
       </c>
       <c r="K4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="L4" t="n">
         <v>52974.8893495167</v>
@@ -26457,7 +26459,7 @@
         <v>52974.8893495167</v>
       </c>
       <c r="P4" t="n">
-        <v>52974.8893495167</v>
+        <v>52974.88934951669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54769.87430787367</v>
+        <v>54769.87430787349</v>
       </c>
       <c r="C6" t="n">
         <v>135539.3058394213</v>
       </c>
       <c r="D6" t="n">
-        <v>135539.3058394211</v>
+        <v>135539.3058394212</v>
       </c>
       <c r="E6" t="n">
-        <v>-110338.8295486469</v>
+        <v>-110338.8295486466</v>
       </c>
       <c r="F6" t="n">
-        <v>235273.5132303059</v>
+        <v>235273.513230306</v>
       </c>
       <c r="G6" t="n">
         <v>235273.5132303059</v>
       </c>
       <c r="H6" t="n">
+        <v>235273.513230306</v>
+      </c>
+      <c r="I6" t="n">
         <v>235273.5132303059</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>172213.5706311998</v>
+      </c>
+      <c r="K6" t="n">
         <v>235273.513230306</v>
       </c>
-      <c r="J6" t="n">
-        <v>172213.5706311997</v>
-      </c>
-      <c r="K6" t="n">
-        <v>235273.5132303062</v>
-      </c>
       <c r="L6" t="n">
-        <v>235273.5132303059</v>
+        <v>235273.5132303058</v>
       </c>
       <c r="M6" t="n">
-        <v>149254.9794102299</v>
+        <v>149254.97941023</v>
       </c>
       <c r="N6" t="n">
         <v>235273.5132303059</v>
@@ -26561,7 +26563,7 @@
         <v>235273.5132303059</v>
       </c>
       <c r="P6" t="n">
-        <v>235273.5132303059</v>
+        <v>235273.513230306</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26753,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>157.7003934923758</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>68.8185983086652</v>
       </c>
       <c r="V3" t="n">
-        <v>74.06183252741059</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456287</v>
+        <v>359.7625155545542</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27701,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>6.367000284680898</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27758,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>61.11519821841949</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27871,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>167.3839086388782</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>193.2768397833762</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>8.3382813394377</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>116.4382655162684</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6756636163529</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35501,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7110456222515</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803102</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35744,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35975,13 +35977,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
         <v>152.98832074971</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36452,7 +36454,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36692,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37394,10 +37396,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
@@ -37558,7 +37560,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
         <v>121.0739155037674</v>
@@ -37622,7 +37624,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L41" t="n">
         <v>373.423817067563</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,7 +37876,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
         <v>152.98832074971</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685986</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
